--- a/CVX_Kenya/Optimization/ Shading_nets_107_45.xlsx
+++ b/CVX_Kenya/Optimization/ Shading_nets_107_45.xlsx
@@ -540,25 +540,25 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2024539997801185</v>
+        <v>0.6265618270263076</v>
       </c>
       <c r="H4">
-        <v>4.943161514866317</v>
+        <v>1.596011943469663</v>
       </c>
       <c r="I4">
-        <v>0.004619118422851898</v>
+        <v>0.002366712753428146</v>
       </c>
       <c r="J4">
-        <v>0.0001443921173631679</v>
+        <v>0.0005064628257969161</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.483895751647651e-05</v>
+        <v>0.0006180772033985704</v>
       </c>
       <c r="M4">
-        <v>0.003578425417799735</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="N4">
         <v>0</v>
